--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T14:58:01+00:00</t>
+    <t>2025-06-13T10:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T10:40:28+00:00</t>
+    <t>2025-06-17T13:53:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-17T13:53:20+00:00</t>
+    <t>2025-06-18T12:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T12:49:42+00:00</t>
+    <t>2025-06-19T12:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:31:56+00:00</t>
+    <t>2025-06-19T12:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:56:09+00:00</t>
+    <t>2025-06-19T13:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T13:39:18+00:00</t>
+    <t>2025-06-20T10:31:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T10:31:38+00:00</t>
+    <t>2025-06-20T12:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T12:06:52+00:00</t>
+    <t>2025-06-20T16:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T16:26:05+00:00</t>
+    <t>2025-06-23T15:53:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T15:53:38+00:00</t>
+    <t>2025-06-25T07:29:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T07:29:13+00:00</t>
+    <t>2025-06-25T08:20:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T08:20:21+00:00</t>
+    <t>2025-07-01T07:34:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T07:34:24+00:00</t>
+    <t>2025-07-01T14:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T14:16:04+00:00</t>
+    <t>2025-07-01T15:09:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T15:09:42+00:00</t>
+    <t>2025-07-09T16:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T16:03:26+00:00</t>
+    <t>2025-08-18T13:46:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T13:46:32+00:00</t>
+    <t>2025-08-19T13:46:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T13:46:05+00:00</t>
+    <t>2025-08-19T14:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T14:52:01+00:00</t>
+    <t>2025-08-22T10:17:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T10:17:30+00:00</t>
+    <t>2025-08-22T12:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T12:56:47+00:00</t>
+    <t>2025-08-22T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:23:20+00:00</t>
+    <t>2025-08-22T14:29:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T14:29:38+00:00</t>
+    <t>2025-08-22T15:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T15:03:40+00:00</t>
+    <t>2025-08-22T16:11:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T16:11:41+00:00</t>
+    <t>2025-08-25T06:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T06:59:32+00:00</t>
+    <t>2025-08-25T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T09:39:34+00:00</t>
+    <t>2025-08-25T11:15:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T11:15:03+00:00</t>
+    <t>2025-08-26T14:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T14:01:05+00:00</t>
+    <t>2025-08-26T14:47:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T14:47:20+00:00</t>
+    <t>2025-08-26T15:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T15:19:13+00:00</t>
+    <t>2025-08-28T09:04:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T09:04:45+00:00</t>
+    <t>2025-08-28T13:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T13:33:26+00:00</t>
+    <t>2025-08-28T13:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T13:53:19+00:00</t>
+    <t>2025-08-29T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T14:53:04+00:00</t>
+    <t>2025-09-02T14:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T14:06:24+00:00</t>
+    <t>2025-09-02T14:14:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T14:14:48+00:00</t>
+    <t>2025-09-02T15:31:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T15:31:32+00:00</t>
+    <t>2025-09-02T16:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T16:40:07+00:00</t>
+    <t>2025-09-03T15:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T15:56:47+00:00</t>
+    <t>2025-09-03T16:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T16:17:34+00:00</t>
+    <t>2025-09-04T08:14:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:14:53+00:00</t>
+    <t>2025-09-04T08:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:29:09+00:00</t>
+    <t>2025-09-04T13:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:01:54+00:00</t>
+    <t>2025-09-04T13:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:30:13+00:00</t>
+    <t>2025-09-04T16:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T16:12:35+00:00</t>
+    <t>2025-09-08T10:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:20:18+00:00</t>
+    <t>2025-09-08T13:03:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:03:11+00:00</t>
+    <t>2025-09-08T13:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-aggregator-regul.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4870" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4870" uniqueCount="634">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:31:50+00:00</t>
+    <t>2025-09-09T08:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1045,6 +1045,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>Practitioner.identifier:IdentifiantInterne.system</t>
   </si>
   <si>
@@ -1063,6 +1066,10 @@
   </si>
   <si>
     <t>Practitioner.identifier:IdentifiantInterne.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -8465,7 +8472,7 @@
         <v>246</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -8512,7 +8519,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>251</v>
@@ -8628,7 +8635,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>263</v>
@@ -8742,7 +8749,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>273</v>
@@ -8777,7 +8784,7 @@
         <v>276</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8839,7 +8846,7 @@
         <v>203</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>278</v>
@@ -8856,7 +8863,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>282</v>
@@ -8882,7 +8889,7 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>284</v>
@@ -8953,7 +8960,7 @@
         <v>203</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>288</v>
@@ -8970,10 +8977,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8996,70 +9003,70 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q59" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q59" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9077,21 +9084,21 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9114,19 +9121,19 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -9175,7 +9182,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9190,13 +9197,13 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>76</v>
@@ -9204,10 +9211,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9316,10 +9323,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9430,13 +9437,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>76</v>
@@ -9458,13 +9465,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9544,10 +9551,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9573,16 +9580,16 @@
         <v>170</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9611,7 +9618,7 @@
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>76</v>
@@ -9629,7 +9636,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9644,13 +9651,13 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>76</v>
@@ -9658,10 +9665,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9687,16 +9694,16 @@
         <v>101</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -9745,7 +9752,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9760,10 +9767,10 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -9774,14 +9781,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9803,13 +9810,13 @@
         <v>101</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9859,7 +9866,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9874,13 +9881,13 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>76</v>
@@ -9888,14 +9895,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9917,13 +9924,13 @@
         <v>101</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9973,7 +9980,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9988,13 +9995,13 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>76</v>
@@ -10002,10 +10009,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10031,10 +10038,10 @@
         <v>101</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10064,10 +10071,10 @@
         <v>152</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>76</v>
@@ -10085,7 +10092,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10100,13 +10107,13 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>76</v>
@@ -10114,10 +10121,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10143,10 +10150,10 @@
         <v>101</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10176,10 +10183,10 @@
         <v>152</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>76</v>
@@ -10197,7 +10204,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10212,10 +10219,10 @@
         <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
@@ -10226,10 +10233,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10255,14 +10262,14 @@
         <v>274</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -10311,7 +10318,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10326,10 +10333,10 @@
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>280</v>
@@ -10340,10 +10347,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10366,19 +10373,19 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>76</v>
@@ -10427,7 +10434,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10439,16 +10446,16 @@
         <v>203</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>76</v>
@@ -10456,10 +10463,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10568,10 +10575,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10682,13 +10689,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>76</v>
@@ -10710,13 +10717,13 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10796,10 +10803,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10825,10 +10832,10 @@
         <v>170</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10840,7 +10847,7 @@
         <v>76</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>76</v>
@@ -10858,10 +10865,10 @@
         <v>233</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>76</v>
@@ -10879,7 +10886,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10888,19 +10895,19 @@
         <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>76</v>
@@ -10908,10 +10915,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10937,16 +10944,16 @@
         <v>101</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -10995,7 +11002,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -11010,10 +11017,10 @@
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>271</v>
@@ -11024,10 +11031,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11053,16 +11060,16 @@
         <v>170</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>76</v>
@@ -11090,10 +11097,10 @@
         <v>233</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>76</v>
@@ -11111,7 +11118,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11126,13 +11133,13 @@
         <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>76</v>
@@ -11140,10 +11147,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11166,16 +11173,16 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11225,7 +11232,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11254,10 +11261,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11283,10 +11290,10 @@
         <v>274</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11337,7 +11344,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11355,7 +11362,7 @@
         <v>193</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>280</v>
@@ -11366,10 +11373,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11392,19 +11399,19 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>76</v>
@@ -11453,7 +11460,7 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11468,13 +11475,13 @@
         <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>76</v>
@@ -11482,10 +11489,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11511,14 +11518,14 @@
         <v>170</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>76</v>
@@ -11546,10 +11553,10 @@
         <v>233</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>76</v>
@@ -11567,7 +11574,7 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11582,13 +11589,13 @@
         <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>76</v>
@@ -11596,10 +11603,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11622,17 +11629,17 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>76</v>
@@ -11681,7 +11688,7 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -11696,13 +11703,13 @@
         <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>76</v>
@@ -11710,10 +11717,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11736,17 +11743,17 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>76</v>
@@ -11795,7 +11802,7 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11813,10 +11820,10 @@
         <v>76</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>76</v>
@@ -11824,10 +11831,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11850,13 +11857,13 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11895,7 +11902,7 @@
         <v>76</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AC84" s="2"/>
       <c r="AD84" t="s" s="2">
@@ -11905,7 +11912,7 @@
         <v>114</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -11920,13 +11927,13 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>76</v>
@@ -11934,10 +11941,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12046,10 +12053,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12160,14 +12167,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12189,10 +12196,10 @@
         <v>108</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>111</v>
@@ -12247,7 +12254,7 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12276,10 +12283,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12305,14 +12312,14 @@
         <v>210</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>76</v>
@@ -12361,7 +12368,7 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12379,7 +12386,7 @@
         <v>76</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>76</v>
@@ -12390,10 +12397,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12419,10 +12426,10 @@
         <v>240</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12452,10 +12459,10 @@
         <v>160</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>76</v>
@@ -12473,7 +12480,7 @@
         <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>87</v>
@@ -12491,10 +12498,10 @@
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>76</v>
@@ -12502,10 +12509,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12531,14 +12538,14 @@
         <v>274</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>76</v>
@@ -12587,7 +12594,7 @@
         <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12605,10 +12612,10 @@
         <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>76</v>
@@ -12616,10 +12623,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12645,10 +12652,10 @@
         <v>283</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12699,7 +12706,7 @@
         <v>76</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -12717,7 +12724,7 @@
         <v>76</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>76</v>
@@ -12728,13 +12735,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>76</v>
@@ -12756,13 +12763,13 @@
         <v>76</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12813,7 +12820,7 @@
         <v>76</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12828,13 +12835,13 @@
         <v>99</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>76</v>
@@ -12842,10 +12849,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12954,10 +12961,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13068,14 +13075,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13097,10 +13104,10 @@
         <v>108</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>111</v>
@@ -13155,7 +13162,7 @@
         <v>76</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -13184,10 +13191,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13213,14 +13220,14 @@
         <v>210</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>76</v>
@@ -13269,7 +13276,7 @@
         <v>76</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13287,7 +13294,7 @@
         <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>76</v>
@@ -13298,10 +13305,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13327,10 +13334,10 @@
         <v>240</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13360,10 +13367,10 @@
         <v>160</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>76</v>
@@ -13381,7 +13388,7 @@
         <v>76</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>87</v>
@@ -13399,10 +13406,10 @@
         <v>76</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>76</v>
@@ -13410,10 +13417,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13522,10 +13529,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13636,10 +13643,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13665,16 +13672,16 @@
         <v>148</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>76</v>
@@ -13718,10 +13725,10 @@
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -13736,10 +13743,10 @@
         <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>76</v>
@@ -13750,13 +13757,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>76</v>
@@ -13781,16 +13788,16 @@
         <v>148</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>76</v>
@@ -13819,7 +13826,7 @@
       </c>
       <c r="Y101" s="2"/>
       <c r="Z101" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>76</v>
@@ -13837,7 +13844,7 @@
         <v>76</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -13852,10 +13859,10 @@
         <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>76</v>
@@ -13866,13 +13873,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>76</v>
@@ -13897,16 +13904,16 @@
         <v>148</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>76</v>
@@ -13935,7 +13942,7 @@
       </c>
       <c r="Y102" s="2"/>
       <c r="Z102" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>76</v>
@@ -13953,7 +13960,7 @@
         <v>76</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -13968,10 +13975,10 @@
         <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>76</v>
@@ -13982,10 +13989,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14011,16 +14018,16 @@
         <v>101</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>76</v>
@@ -14069,7 +14076,7 @@
         <v>76</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -14084,10 +14091,10 @@
         <v>99</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>76</v>
@@ -14098,10 +14105,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14127,14 +14134,14 @@
         <v>274</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>76</v>
@@ -14183,7 +14190,7 @@
         <v>76</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -14201,10 +14208,10 @@
         <v>76</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>76</v>
@@ -14212,10 +14219,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14241,10 +14248,10 @@
         <v>283</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14295,7 +14302,7 @@
         <v>76</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -14313,7 +14320,7 @@
         <v>76</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>76</v>
@@ -14324,13 +14331,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>76</v>
@@ -14352,13 +14359,13 @@
         <v>76</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14409,7 +14416,7 @@
         <v>76</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -14424,13 +14431,13 @@
         <v>99</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>76</v>
@@ -14438,10 +14445,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14550,10 +14557,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14664,14 +14671,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14693,10 +14700,10 @@
         <v>108</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>111</v>
@@ -14751,7 +14758,7 @@
         <v>76</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -14780,10 +14787,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14809,14 +14816,14 @@
         <v>210</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>76</v>
@@ -14865,7 +14872,7 @@
         <v>76</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
@@ -14883,7 +14890,7 @@
         <v>76</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>76</v>
@@ -14894,10 +14901,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14923,10 +14930,10 @@
         <v>240</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -14956,10 +14963,10 @@
         <v>160</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>76</v>
@@ -14977,7 +14984,7 @@
         <v>76</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>87</v>
@@ -14995,10 +15002,10 @@
         <v>76</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>76</v>
@@ -15006,10 +15013,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15118,10 +15125,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15232,10 +15239,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15261,16 +15268,16 @@
         <v>148</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>76</v>
@@ -15314,10 +15321,10 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
@@ -15332,10 +15339,10 @@
         <v>99</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
@@ -15346,13 +15353,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>76</v>
@@ -15377,16 +15384,16 @@
         <v>148</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>76</v>
@@ -15415,7 +15422,7 @@
       </c>
       <c r="Y115" s="2"/>
       <c r="Z115" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>76</v>
@@ -15433,7 +15440,7 @@
         <v>76</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>77</v>
@@ -15448,10 +15455,10 @@
         <v>99</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
@@ -15462,13 +15469,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>76</v>
@@ -15493,16 +15500,16 @@
         <v>148</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>76</v>
@@ -15531,7 +15538,7 @@
       </c>
       <c r="Y116" s="2"/>
       <c r="Z116" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>76</v>
@@ -15549,7 +15556,7 @@
         <v>76</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>77</v>
@@ -15564,10 +15571,10 @@
         <v>99</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>76</v>
@@ -15578,10 +15585,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15607,16 +15614,16 @@
         <v>101</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>76</v>
@@ -15665,7 +15672,7 @@
         <v>76</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>77</v>
@@ -15680,10 +15687,10 @@
         <v>99</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>76</v>
@@ -15694,10 +15701,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15723,14 +15730,14 @@
         <v>274</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>76</v>
@@ -15779,7 +15786,7 @@
         <v>76</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>77</v>
@@ -15797,10 +15804,10 @@
         <v>76</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>76</v>
@@ -15808,10 +15815,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15837,10 +15844,10 @@
         <v>283</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15891,7 +15898,7 @@
         <v>76</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>77</v>
@@ -15909,7 +15916,7 @@
         <v>76</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>76</v>
@@ -15920,13 +15927,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>76</v>
@@ -15948,13 +15955,13 @@
         <v>76</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16005,7 +16012,7 @@
         <v>76</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>77</v>
@@ -16020,13 +16027,13 @@
         <v>99</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>76</v>
@@ -16034,10 +16041,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16146,10 +16153,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16260,14 +16267,14 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -16289,10 +16296,10 @@
         <v>108</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="N123" t="s" s="2">
         <v>111</v>
@@ -16347,7 +16354,7 @@
         <v>76</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
@@ -16376,10 +16383,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16405,14 +16412,14 @@
         <v>210</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>76</v>
@@ -16461,7 +16468,7 @@
         <v>76</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>77</v>
@@ -16479,7 +16486,7 @@
         <v>76</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
@@ -16490,10 +16497,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16519,10 +16526,10 @@
         <v>240</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -16552,10 +16559,10 @@
         <v>160</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>76</v>
@@ -16573,7 +16580,7 @@
         <v>76</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>87</v>
@@ -16591,10 +16598,10 @@
         <v>76</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>76</v>
@@ -16602,10 +16609,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16714,10 +16721,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16828,10 +16835,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -16857,16 +16864,16 @@
         <v>148</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>76</v>
@@ -16910,10 +16917,10 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>77</v>
@@ -16928,10 +16935,10 @@
         <v>99</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>76</v>
@@ -16942,13 +16949,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>76</v>
@@ -16973,16 +16980,16 @@
         <v>148</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>76</v>
@@ -17011,7 +17018,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>76</v>
@@ -17029,7 +17036,7 @@
         <v>76</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>77</v>
@@ -17044,10 +17051,10 @@
         <v>99</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>76</v>
@@ -17058,13 +17065,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>76</v>
@@ -17089,16 +17096,16 @@
         <v>148</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>76</v>
@@ -17127,7 +17134,7 @@
       </c>
       <c r="Y130" s="2"/>
       <c r="Z130" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>76</v>
@@ -17145,7 +17152,7 @@
         <v>76</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>77</v>
@@ -17160,10 +17167,10 @@
         <v>99</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -17174,10 +17181,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17203,16 +17210,16 @@
         <v>101</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>76</v>
@@ -17261,7 +17268,7 @@
         <v>76</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>77</v>
@@ -17276,10 +17283,10 @@
         <v>99</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
@@ -17290,10 +17297,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17319,14 +17326,14 @@
         <v>274</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>76</v>
@@ -17375,7 +17382,7 @@
         <v>76</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>77</v>
@@ -17393,10 +17400,10 @@
         <v>76</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>76</v>
@@ -17404,10 +17411,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17433,10 +17440,10 @@
         <v>283</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -17487,7 +17494,7 @@
         <v>76</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>77</v>
@@ -17505,7 +17512,7 @@
         <v>76</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>76</v>
@@ -17516,10 +17523,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17545,16 +17552,16 @@
         <v>240</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>76</v>
@@ -17603,7 +17610,7 @@
         <v>76</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>77</v>
@@ -17618,13 +17625,13 @@
         <v>99</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>76</v>
